--- a/Q&A.xlsx
+++ b/Q&A.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한정인\Desktop\site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한정인\PycharmProjects\site\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,246 +19,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+  <x:si>
+    <x:t>집?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 과일?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행가는거 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달러구트 꿈백화점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 책 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 음식 싫어해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신발 사이즈가 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이가 몇이야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰 기종이 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생일이 몇 월이야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 음식 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 색 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 행위 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형재 자매 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 음익?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>있어. 동생 2명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 음식 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려 동물 없어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 공차 메뉴?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사는곳이 어디야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 색 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공차가면 먹는 메뉴?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 계절 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어떤 휴대폰 사용해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 좋아하는 색은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 계절은?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려 동물 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대한민국 충청남도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨일 하고 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 과일 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발 사이즈가 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MBTI가 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생일이 언제야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>집에 동물 키워?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어느 지역에 살아?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림 맛?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여자야 남자야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 책 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>싫어하는 음식 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>못먹는 음식있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 음식 못 먹어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하얀색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딸기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취미?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아니</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생일?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계절?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한정인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19살</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 살이야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는거?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사는 곳?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어디 살아?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가족 관계?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이스크림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래 듣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고등학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MBTI?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름이 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공차 최애?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발 사이즈?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어디에 살아?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직업이 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ISFJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아몬드 봉봉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반려 동물?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최애 과일?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9월 7일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MBTI알려줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래듣기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mbti?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신발사이즈?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰 기종?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 색?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>못 먹는 음식 많은데, 대표적으로는 오이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>싫어하는 음식 많은데, 대표적으로는 오이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너의 MBTI가 뭐야?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장르는 안가리고 다 들어.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 맛 아이스크림 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망고 요구르트+화이트펄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰 어떤거 사용해?</x:t>
+  </x:si>
   <x:si>
     <x:t>아이스크림 무슨 맛 좋아해?</x:t>
   </x:si>
   <x:si>
+    <x:t>어떤 장르 노래 좋아해?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아하는 노래 장르 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iphone 12 mini</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노래 듣는 거 좋아해?</x:t>
+  </x:si>
+  <x:si>
     <x:t>좋아하는 아이스크림 맛이 뭐야?</x:t>
   </x:si>
   <x:si>
-    <x:t>아몬드 봉봉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생일이 몇 월이야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰 어떤거 사용해?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iphone 12 mini</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너의 MBTI가 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망고 요구르트+화이트펄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한정인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19살</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아니</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취미?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생일?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계절?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하얀색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 음식 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형재 자매 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 좋아하는 색은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무슨 음식 좋아해?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어떤 휴대폰 사용해?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대한민국 충청남도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 행위 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공차가면 먹는 메뉴?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰 기종이 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무슨 계절 좋아해?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신발 사이즈가 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 계절은?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사는곳이 어디야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이가 몇이야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무슨 색 좋아해?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무슨일 하고 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여자야 남자야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생일이 언제야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MBTI가 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어느 지역에 살아?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>집에 동물 키워?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 음익?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려 동물 없어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 색 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>있어. 동생 2명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려 동물 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 공차 메뉴?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 살이야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래 듣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발 사이즈?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는거?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어디 살아?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어디에 살아?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래듣기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가족 관계?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MBTI?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름이 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직업이 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사는 곳?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고등학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공차 최애?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ISFJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반려 동물?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신발사이즈?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아하는 색?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰 기종?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9월 7일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이스크림 맛?</x:t>
-  </x:si>
-  <x:si>
     <x:t>엄마, 아빠, 동생1, 동생2</x:t>
   </x:si>
   <x:si>
     <x:t>가장 좋아하는 아이스크림 맛?</x:t>
   </x:si>
   <x:si>
-    <x:t>응</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발 사이즈가 뭐야?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MBTI알려줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무슨 맛 아이스크림 좋아해?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노래 듣는 거 좋아해?</x:t>
+    <x:t>주로 어떤 장르의 노래를 들어?</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -326,7 +392,13 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1026,479 +1098,615 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B58"/>
+  <x:dimension ref="A1:B75"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A41" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B8" activeCellId="0" sqref="B8:B8"/>
+    <x:sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B33" activeCellId="0" sqref="B33:B33"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="2" width="79.59765625" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="79.59765625" style="4" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>15</x:v>
+      <x:c r="A1" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="4" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="4" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="4" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="4" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2" s="2" customFormat="1">
+      <x:c r="A7" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" s="1" customFormat="1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="4" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2" s="2" customFormat="1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="4" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B12" s="4" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B13" s="4" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="4" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B14" s="4" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B15" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="4" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B16" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B17" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="4" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B18" s="4" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B19" s="4" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B20" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="4" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B21" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2" s="3" customFormat="1">
+      <x:c r="A22" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2" s="2" customFormat="1">
+      <x:c r="A23" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B24" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="4" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2" customFormat="1">
-      <x:c r="A7" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2" customFormat="1">
-      <x:c r="A10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="B25" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B26" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B27" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B28" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2" s="3" customFormat="1">
+      <x:c r="A29" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B30" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2" s="3" customFormat="1">
+      <x:c r="A31" s="3" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2" s="1" customFormat="1">
-      <x:c r="A21" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2" customFormat="1">
-      <x:c r="A22" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B22" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="A27" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2" s="1" customFormat="1">
-      <x:c r="A28" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B28" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="A29" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2" s="1" customFormat="1">
-      <x:c r="A30" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B30" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
-      <x:c r="A31" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>67</x:v>
+      <x:c r="B31" s="3" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2" customFormat="1">
       <x:c r="A32" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B33" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2" s="2" customFormat="1">
+      <x:c r="A34" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B35" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B36" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="4" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B37" s="4" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B38" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="4" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B39" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B40" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="4" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B41" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B42" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B43" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B44" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B45" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:2">
+      <x:c r="A46" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B46" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:2">
+      <x:c r="A47" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B47" s="4" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:2">
+      <x:c r="A48" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B48" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2">
+      <x:c r="A49" s="4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B49" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:2">
+      <x:c r="A50" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B50" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2">
+      <x:c r="A51" s="4" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B51" s="4" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:2">
+      <x:c r="A52" s="4" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B52" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2">
+      <x:c r="A53" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B53" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:2">
+      <x:c r="A54" s="4" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B54" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2">
+      <x:c r="A55" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B55" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:2">
+      <x:c r="A56" s="4" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B56" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2">
+      <x:c r="A57" s="4" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B57" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:2">
+      <x:c r="A58" s="4" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B58" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2">
+      <x:c r="A59" s="4" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B59" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:2">
+      <x:c r="A60" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B60" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2">
+      <x:c r="A61" s="4" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B61" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:2">
+      <x:c r="A62" s="4" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B62" s="4" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:2">
+      <x:c r="A63" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B63" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:2">
+      <x:c r="A64" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B64" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:2">
+      <x:c r="A65" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B65" s="4" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:2">
+      <x:c r="A66" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2">
+      <x:c r="A67" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B67" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:2">
+      <x:c r="A68" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B68" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="A69" s="4" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B69" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:2">
+      <x:c r="A70" s="4" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B70" s="4" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2">
+      <x:c r="A71" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B71" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:2">
+      <x:c r="A72" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B72" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="A73" s="4" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B32" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
-      <x:c r="A33" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
-      <x:c r="A34" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
-      <x:c r="A35" s="2" t="s">
+      <x:c r="B73" s="4" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2">
-      <x:c r="A36" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
-      <x:c r="A37" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:2">
-      <x:c r="A38" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
-      <x:c r="A39" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2">
-      <x:c r="A40" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
-      <x:c r="A41" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:2">
-      <x:c r="A42" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2">
-      <x:c r="A43" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:2">
-      <x:c r="A44" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:2">
-      <x:c r="A45" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:2">
-      <x:c r="A46" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:2">
-      <x:c r="A47" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:2">
-      <x:c r="A48" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:2">
-      <x:c r="A49" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:2">
-      <x:c r="A50" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:2">
-      <x:c r="A51" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:2">
-      <x:c r="A52" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:2">
-      <x:c r="A53" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:2">
-      <x:c r="A54" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s">
+    </x:row>
+    <x:row r="74" spans="1:2">
+      <x:c r="A74" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:2">
-      <x:c r="A55" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:2">
-      <x:c r="A56" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:2">
-      <x:c r="A57" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:2">
-      <x:c r="A58" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>2</x:v>
+      <x:c r="B74" s="4" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:2">
+      <x:c r="A75" s="4" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B75" s="4" t="s">
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
